--- a/SuppXLS/Scen_Nuclear_High_Low.xlsx
+++ b/SuppXLS/Scen_Nuclear_High_Low.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IEMM\IEMM_MIG\IEMM_V60_10-1\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06022C97-5FF6-4EB9-AD08-BD46D96959A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B2F24A-247D-463C-9B54-CDD8D719916C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="5" r:id="rId1"/>
@@ -27,6 +27,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amit Kanudia</author>
+    <author>AMIT</author>
   </authors>
   <commentList>
     <comment ref="AG11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
@@ -55,12 +56,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="S13" authorId="1" shapeId="0" xr:uid="{CBFCDF1F-58CE-4C1C-B0F0-E90E7E8CBA96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>AMIT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+29-10-2021
+controlled via acct tech</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3510" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="61">
   <si>
     <t>~TFM_DINS-AT</t>
   </si>
@@ -232,12 +258,24 @@
   <si>
     <t>LO</t>
   </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>EN*,EP*</t>
+  </si>
+  <si>
+    <t>allregions</t>
+  </si>
+  <si>
+    <t>~TFM_UPD: limtype=UP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -421,6 +459,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1243,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AH580"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1663,6 +1714,9 @@
       <c r="P11">
         <v>0.76691021078676203</v>
       </c>
+      <c r="S11" t="s">
+        <v>60</v>
+      </c>
       <c r="Z11" t="s">
         <v>27</v>
       </c>
@@ -1716,6 +1770,18 @@
       <c r="P12">
         <v>0.74507248471334697</v>
       </c>
+      <c r="S12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" t="s">
+        <v>59</v>
+      </c>
       <c r="AB12" t="s">
         <v>29</v>
       </c>
@@ -1759,6 +1825,18 @@
       </c>
       <c r="P13">
         <v>0.293246758854453</v>
+      </c>
+      <c r="S13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
       </c>
       <c r="Z13" t="s">
         <v>30</v>
